--- a/tmp/3SECONDES/3SECONDES-recap-detailed.xlsx
+++ b/tmp/3SECONDES/3SECONDES-recap-detailed.xlsx
@@ -512,7 +512,7 @@
         <v>192</v>
       </c>
       <c r="C4" t="n">
-        <v>11105</v>
+        <v>11091</v>
       </c>
       <c r="D4" t="n">
         <v>278</v>
@@ -544,7 +544,7 @@
         <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>3199</v>
+        <v>3182</v>
       </c>
       <c r="D6" t="n">
         <v>80</v>
@@ -560,10 +560,10 @@
         <v>81</v>
       </c>
       <c r="C7" t="n">
-        <v>5626</v>
+        <v>5593</v>
       </c>
       <c r="D7" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>1515</v>
+        <v>1508</v>
       </c>
       <c r="D8" t="n">
         <v>38</v>
@@ -640,10 +640,10 @@
         <v>57</v>
       </c>
       <c r="C12" t="n">
-        <v>2462</v>
+        <v>2436</v>
       </c>
       <c r="D12" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -672,7 +672,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="D14" t="n">
         <v>32</v>
@@ -688,10 +688,10 @@
         <v>56</v>
       </c>
       <c r="C15" t="n">
-        <v>2247</v>
+        <v>2235</v>
       </c>
       <c r="D15" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>2120</v>
+        <v>2091</v>
       </c>
       <c r="D19" t="n">
         <v>53</v>
@@ -816,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D23" t="n">
         <v>4</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D27" t="n">
         <v>7</v>
@@ -944,10 +944,10 @@
         <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">

--- a/tmp/3SECONDES/3SECONDES-recap-detailed.xlsx
+++ b/tmp/3SECONDES/3SECONDES-recap-detailed.xlsx
@@ -512,7 +512,7 @@
         <v>192</v>
       </c>
       <c r="C4" t="n">
-        <v>11091</v>
+        <v>11105</v>
       </c>
       <c r="D4" t="n">
         <v>278</v>
@@ -544,7 +544,7 @@
         <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>3182</v>
+        <v>3199</v>
       </c>
       <c r="D6" t="n">
         <v>80</v>
@@ -560,10 +560,10 @@
         <v>81</v>
       </c>
       <c r="C7" t="n">
-        <v>5593</v>
+        <v>5626</v>
       </c>
       <c r="D7" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>1508</v>
+        <v>1515</v>
       </c>
       <c r="D8" t="n">
         <v>38</v>
@@ -640,10 +640,10 @@
         <v>57</v>
       </c>
       <c r="C12" t="n">
-        <v>2436</v>
+        <v>2462</v>
       </c>
       <c r="D12" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -672,7 +672,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>1260</v>
+        <v>1268</v>
       </c>
       <c r="D14" t="n">
         <v>32</v>
@@ -688,10 +688,10 @@
         <v>56</v>
       </c>
       <c r="C15" t="n">
-        <v>2235</v>
+        <v>2247</v>
       </c>
       <c r="D15" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>2091</v>
+        <v>2120</v>
       </c>
       <c r="D19" t="n">
         <v>53</v>
@@ -816,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D23" t="n">
         <v>4</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D27" t="n">
         <v>7</v>
@@ -944,10 +944,10 @@
         <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="D31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -1177,7 +1177,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>43 - VOLNOV’S WIFE</t>
+          <t>43 - VOLNOVS WIFE</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1193,7 +1193,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>44 - EDESHKO’S GIRLFRIEND</t>
+          <t>44 - EDESHKOS GIRLFRIEND</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1353,7 +1353,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>54 - BRUNDAGE’S VOICE</t>
+          <t>54 - BRUNDAGES VOICE</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1552,7 +1552,7 @@
         <v>31</v>
       </c>
       <c r="C69" t="n">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D69" t="n">
         <v>66</v>
